--- a/RC1_noise_signal_SNR_voltages.xlsx
+++ b/RC1_noise_signal_SNR_voltages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuxla\rtucloud1\Darja Čirjuļina - Ruslans\Žurnala_raksts\AD2_RC1_create_noise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruslans Babajans\Desktop\chaos_AD2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07244023-1693-4ACA-B077-B12358861FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AFCCFC-9D25-4445-8E6D-7CCFB40CA326}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,25 +470,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -774,17 +774,17 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -801,8 +801,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7">
@@ -811,11 +811,11 @@
       <c r="D4" s="12">
         <v>84</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="17">
         <f>D4*2</f>
         <v>168</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="20">
         <v>180</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -825,68 +825,68 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
       <c r="C5" s="1">
         <v>5</v>
       </c>
       <c r="D5" s="13">
         <v>42</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="18">
         <f t="shared" ref="E5:E8" si="0">D5*2</f>
         <v>84</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="20">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
       <c r="C6" s="1">
         <v>10</v>
       </c>
       <c r="D6" s="13">
         <v>11</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="20">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
       <c r="C7" s="1">
         <v>15</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="23">
+      <c r="E7" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="20">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="19"/>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
       <c r="C8" s="8">
         <v>20</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="24">
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="5">
@@ -896,8 +896,8 @@
         <v>877</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -905,8 +905,8 @@
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
       <c r="C11" s="1">
         <v>10</v>
       </c>
@@ -914,8 +914,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
       <c r="C12" s="1">
         <v>15</v>
       </c>
@@ -923,8 +923,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21"/>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="25"/>
       <c r="C13" s="3">
         <v>20</v>
       </c>
